--- a/Assets/Excel/ExcelData.xlsx
+++ b/Assets/Excel/ExcelData.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjectFile\TeamSSVProject\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SSVProject\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2154D4-B6BB-43BA-8B72-E8AA00C4D694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1267E783-D613-4276-8A55-0C1B8A37FB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{229F62D4-C69F-40BD-A997-29D4750246FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{229F62D4-C69F-40BD-A997-29D4750246FC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ItemDB" sheetId="1" r:id="rId1"/>
+    <sheet name="ItemComebine" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>CodeName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,6 +110,34 @@
   </si>
   <si>
     <t>자동차 기어를 제어하는데 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CompletedItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,7 +504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB650D7D-601C-4F1E-80EB-28FEF3DAF782}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -589,4 +618,71 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371CEF3F-6AE1-4B0A-92F1-955430F27E3D}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/Excel/ExcelData.xlsx
+++ b/Assets/Excel/ExcelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SSVProject\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1267E783-D613-4276-8A55-0C1B8A37FB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CA7ECC-B2BB-48FE-82E0-80D852E5A6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{229F62D4-C69F-40BD-A997-29D4750246FC}"/>
+    <workbookView xWindow="-21590" yWindow="3920" windowWidth="18260" windowHeight="15350" xr2:uid="{229F62D4-C69F-40BD-A997-29D4750246FC}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDB" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>CodeName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,68 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자동차 성능 기록부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보험 이력서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오일 캡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차량 스마트 키</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에어컨 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>창문 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자동차 기어봉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차량 연식이나 주행거리와 같이 해당 자동차의 기본 정보와 사고 이력 조회 및 수리, 자동차 검사 이력에 대한 내용이 기록된 서류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자동차 시동작업을 할 때 사용함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오일캡은 엔진운전중 튀어오른 오일의 누유를 방지한다.</t>
-  </si>
-  <si>
-    <t>중고차가 과거에 겪었던 사고 및 보험 청구 내역을 기록한 문서</t>
-  </si>
-  <si>
-    <t>자동차 핸들의 진동이 심하게 떠는지 알아보는데 사용함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에어컨을 작동할 때 사용하는 공저버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>창문을 여는데 사용하는 공저버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자동차 기어를 제어하는데 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,6 +76,152 @@
   </si>
   <si>
     <t>Count3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나뭇가지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무 막대기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무 줄기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나뭇잎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무 창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나뭇가지 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무 막대기 입니다.</t>
+  </si>
+  <si>
+    <t>나무 줄기 입니다.</t>
+  </si>
+  <si>
+    <t>나뭇잎 입니다.</t>
+  </si>
+  <si>
+    <t>나무 창 입니다.</t>
+  </si>
+  <si>
+    <t>모닥불 입니다.</t>
+  </si>
+  <si>
+    <t>나뭇가지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무줄기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무 막대기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노끈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무막대기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나뭇잎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>움막</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바구니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모닥불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌 입니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바구니 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>움막 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모닥 불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노끈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노끈 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무 창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CompleteItemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CompletedCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consumable</t>
+  </si>
+  <si>
+    <t>Consumable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Install</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -184,9 +268,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,20 +589,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB650D7D-601C-4F1E-80EB-28FEF3DAF782}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="120.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -523,95 +610,150 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>110</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>200</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
       <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>130</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>140</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>150</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>300</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>400</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>500</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>600</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
       <c r="C7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>700</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>800</v>
+        <v>170</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>180</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>190</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -622,63 +764,219 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371CEF3F-6AE1-4B0A-92F1-955430F27E3D}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>100</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="L2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>120</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1">
+        <v>140</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="L3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>110</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>130</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>140</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1">
+        <v>200</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>140</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>190</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>170</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>110</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>140</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>150</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>100</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>100</v>
-      </c>
-      <c r="B2">
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="J7" s="1">
+        <v>180</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="1">
         <v>1</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/ExcelData.xlsx
+++ b/Assets/Excel/ExcelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SSVProject\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CA7ECC-B2BB-48FE-82E0-80D852E5A6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B038B9E-9500-4749-B823-664924C14D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21590" yWindow="3920" windowWidth="18260" windowHeight="15350" xr2:uid="{229F62D4-C69F-40BD-A997-29D4750246FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{229F62D4-C69F-40BD-A997-29D4750246FC}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDB" sheetId="1" r:id="rId1"/>
@@ -591,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB650D7D-601C-4F1E-80EB-28FEF3DAF782}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -766,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371CEF3F-6AE1-4B0A-92F1-955430F27E3D}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -834,7 +834,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="1">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>23</v>
@@ -871,7 +871,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
         <v>130</v>
@@ -880,7 +880,7 @@
         <v>27</v>
       </c>
       <c r="F4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1">
         <v>140</v>
@@ -889,10 +889,10 @@
         <v>24</v>
       </c>
       <c r="I4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>28</v>
@@ -912,7 +912,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="1">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>29</v>
@@ -970,7 +970,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="1">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>30</v>

--- a/Assets/Excel/ExcelData.xlsx
+++ b/Assets/Excel/ExcelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SSVProject\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B038B9E-9500-4749-B823-664924C14D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C338E91-49E7-42DC-B6E0-29C3BDFFF08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{229F62D4-C69F-40BD-A997-29D4750246FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{229F62D4-C69F-40BD-A997-29D4750246FC}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDB" sheetId="1" r:id="rId1"/>
@@ -591,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB650D7D-601C-4F1E-80EB-28FEF3DAF782}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -766,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371CEF3F-6AE1-4B0A-92F1-955430F27E3D}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Excel/ExcelData.xlsx
+++ b/Assets/Excel/ExcelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SSVProject\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C338E91-49E7-42DC-B6E0-29C3BDFFF08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5C1A9D-B4AF-4F7A-96EF-8DC01F033BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{229F62D4-C69F-40BD-A997-29D4750246FC}"/>
+    <workbookView xWindow="-23400" yWindow="3200" windowWidth="18260" windowHeight="15350" xr2:uid="{229F62D4-C69F-40BD-A997-29D4750246FC}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDB" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t>CodeName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,10 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>나무 막대기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나무 줄기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,9 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>나무 막대기 입니다.</t>
-  </si>
-  <si>
     <t>나무 줄기 입니다.</t>
   </si>
   <si>
@@ -126,10 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>나무 막대기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>노끈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>나무막대기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나뭇잎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,6 +207,42 @@
   </si>
   <si>
     <t>Install</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통나무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깐 통나무 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통나무 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통나무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깐 통나무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깐 통나무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Envirment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무입니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB650D7D-601C-4F1E-80EB-28FEF3DAF782}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -610,7 +631,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -624,10 +645,10 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -635,125 +656,153 @@
         <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
+        <v>180</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>190</v>
       </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>200</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -767,7 +816,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="B6" sqref="B6:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -790,7 +839,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -799,7 +848,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -808,7 +857,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>9</v>
@@ -817,30 +866,30 @@
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="L2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -848,16 +897,16 @@
         <v>120</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1">
         <v>140</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L3" s="1">
         <v>5</v>
@@ -865,10 +914,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -877,7 +926,7 @@
         <v>130</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
@@ -886,7 +935,7 @@
         <v>140</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I4" s="1">
         <v>2</v>
@@ -895,7 +944,7 @@
         <v>190</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L4" s="1">
         <v>1</v>
@@ -906,7 +955,7 @@
         <v>140</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
@@ -915,7 +964,7 @@
         <v>180</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L5" s="1">
         <v>1</v>
@@ -926,16 +975,16 @@
         <v>170</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -944,7 +993,7 @@
         <v>140</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I6" s="1">
         <v>2</v>
@@ -953,7 +1002,7 @@
         <v>150</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
@@ -964,7 +1013,7 @@
         <v>100</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
@@ -973,7 +1022,7 @@
         <v>160</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L7" s="1">
         <v>1</v>

--- a/Assets/Excel/ExcelData.xlsx
+++ b/Assets/Excel/ExcelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SSVProject\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5C1A9D-B4AF-4F7A-96EF-8DC01F033BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3C9903-0A33-46C4-810E-7B75AB7026BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23400" yWindow="3200" windowWidth="18260" windowHeight="15350" xr2:uid="{229F62D4-C69F-40BD-A997-29D4750246FC}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{229F62D4-C69F-40BD-A997-29D4750246FC}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDB" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t>CodeName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,6 +243,10 @@
   </si>
   <si>
     <t>나무입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consumable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,7 +617,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -715,7 +719,7 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
         <v>32</v>
@@ -816,7 +820,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:I6"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Excel/ExcelData.xlsx
+++ b/Assets/Excel/ExcelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SSVProject\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3C9903-0A33-46C4-810E-7B75AB7026BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A3E787-16A2-4203-A583-BDE8B65D5E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{229F62D4-C69F-40BD-A997-29D4750246FC}"/>
+    <workbookView xWindow="8325" yWindow="3705" windowWidth="18255" windowHeight="11205" xr2:uid="{229F62D4-C69F-40BD-A997-29D4750246FC}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDB" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="60">
   <si>
     <t>CodeName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,10 +179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CompleteItemName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Name3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -247,6 +243,34 @@
   </si>
   <si>
     <t>Consumable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CompletedItemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페트병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Tool </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페트병입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천입니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -614,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB650D7D-601C-4F1E-80EB-28FEF3DAF782}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -635,7 +659,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -649,7 +673,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -660,13 +684,13 @@
         <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -674,13 +698,13 @@
         <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -691,7 +715,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -705,7 +729,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -719,7 +743,7 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
         <v>32</v>
@@ -733,7 +757,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -747,7 +771,7 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -761,7 +785,7 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
@@ -775,7 +799,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
         <v>28</v>
@@ -789,7 +813,7 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
         <v>29</v>
@@ -800,13 +824,41 @@
         <v>200</v>
       </c>
       <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
         <v>50</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>51</v>
       </c>
-      <c r="D13" t="s">
-        <v>52</v>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>210</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>220</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -820,7 +872,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -861,7 +913,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>9</v>
@@ -870,10 +922,10 @@
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -881,7 +933,7 @@
         <v>110</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -890,7 +942,7 @@
         <v>115</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -921,7 +973,7 @@
         <v>115</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>

--- a/Assets/Excel/ExcelData.xlsx
+++ b/Assets/Excel/ExcelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SSVProject\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A3E787-16A2-4203-A583-BDE8B65D5E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24685B1D-FFCA-416C-9AE8-5F1373BB3DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8325" yWindow="3705" windowWidth="18255" windowHeight="11205" xr2:uid="{229F62D4-C69F-40BD-A997-29D4750246FC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
   <si>
     <t>CodeName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,6 +271,30 @@
   </si>
   <si>
     <t>천입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산딸기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산딸기입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오디입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기입니다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -638,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB650D7D-601C-4F1E-80EB-28FEF3DAF782}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -859,6 +883,48 @@
       </c>
       <c r="D15" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>230</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>240</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>250</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/ExcelData.xlsx
+++ b/Assets/Excel/ExcelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SSVProject\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24685B1D-FFCA-416C-9AE8-5F1373BB3DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E28F10-1BE8-4287-8479-F86E0EB164A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8325" yWindow="3705" windowWidth="18255" windowHeight="11205" xr2:uid="{229F62D4-C69F-40BD-A997-29D4750246FC}"/>
+    <workbookView xWindow="-22300" yWindow="4010" windowWidth="18260" windowHeight="11210" activeTab="1" xr2:uid="{229F62D4-C69F-40BD-A997-29D4750246FC}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDB" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
   <si>
     <t>CodeName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -295,6 +295,14 @@
   </si>
   <si>
     <t>물고기입니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흰돌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흰돌입니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -662,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB650D7D-601C-4F1E-80EB-28FEF3DAF782}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -927,6 +935,20 @@
         <v>65</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>260</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -937,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371CEF3F-6AE1-4B0A-92F1-955430F27E3D}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Excel/ExcelData.xlsx
+++ b/Assets/Excel/ExcelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SSVProject\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E28F10-1BE8-4287-8479-F86E0EB164A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3619AE54-825D-46F5-AE0E-34C5A84D79C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22300" yWindow="4010" windowWidth="18260" windowHeight="11210" activeTab="1" xr2:uid="{229F62D4-C69F-40BD-A997-29D4750246FC}"/>
   </bookViews>
@@ -960,7 +960,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1160,7 +1160,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1">
         <v>160</v>
